--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt2-Fzd9.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H2">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.71818511471347</v>
+        <v>0.7517265</v>
       </c>
       <c r="N2">
-        <v>0.71818511471347</v>
+        <v>1.503453</v>
       </c>
       <c r="O2">
-        <v>0.3522250299384848</v>
+        <v>0.3430414969595709</v>
       </c>
       <c r="P2">
-        <v>0.3522250299384848</v>
+        <v>0.2862361877440628</v>
       </c>
       <c r="Q2">
-        <v>0.3307937840954806</v>
+        <v>0.431895439857</v>
       </c>
       <c r="R2">
-        <v>0.3307937840954806</v>
+        <v>2.591372639142</v>
       </c>
       <c r="S2">
-        <v>0.3522250299384848</v>
+        <v>0.3430414969595709</v>
       </c>
       <c r="T2">
-        <v>0.3522250299384848</v>
+        <v>0.2862361877440628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H3">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.256741873230824</v>
+        <v>0.2592623333333333</v>
       </c>
       <c r="N3">
-        <v>0.256741873230824</v>
+        <v>0.777787</v>
       </c>
       <c r="O3">
-        <v>0.1259158845435947</v>
+        <v>0.1183112992982127</v>
       </c>
       <c r="P3">
-        <v>0.1259158845435947</v>
+        <v>0.1480796444962971</v>
       </c>
       <c r="Q3">
-        <v>0.1182544918320535</v>
+        <v>0.1489560624686667</v>
       </c>
       <c r="R3">
-        <v>0.1182544918320535</v>
+        <v>1.340604562218</v>
       </c>
       <c r="S3">
-        <v>0.1259158845435947</v>
+        <v>0.1183112992982127</v>
       </c>
       <c r="T3">
-        <v>0.1259158845435947</v>
+        <v>0.1480796444962971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H4">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.132488603118731</v>
+        <v>0.1423686666666667</v>
       </c>
       <c r="N4">
-        <v>0.132488603118731</v>
+        <v>0.427106</v>
       </c>
       <c r="O4">
-        <v>0.0649774010125802</v>
+        <v>0.06496825711674591</v>
       </c>
       <c r="P4">
-        <v>0.0649774010125802</v>
+        <v>0.08131494180570706</v>
       </c>
       <c r="Q4">
-        <v>0.06102383003670924</v>
+        <v>0.08179620900933333</v>
       </c>
       <c r="R4">
-        <v>0.06102383003670924</v>
+        <v>0.7361658810839999</v>
       </c>
       <c r="S4">
-        <v>0.0649774010125802</v>
+        <v>0.06496825711674591</v>
       </c>
       <c r="T4">
-        <v>0.0649774010125802</v>
+        <v>0.08131494180570706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H5">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.133395407551601</v>
+        <v>0.171105</v>
       </c>
       <c r="N5">
-        <v>0.133395407551601</v>
+        <v>0.513315</v>
       </c>
       <c r="O5">
-        <v>0.06542213206028984</v>
+        <v>0.07808174294409917</v>
       </c>
       <c r="P5">
-        <v>0.06542213206028984</v>
+        <v>0.09772791614493011</v>
       </c>
       <c r="Q5">
-        <v>0.0614415012800116</v>
+        <v>0.09830632448999999</v>
       </c>
       <c r="R5">
-        <v>0.0614415012800116</v>
+        <v>0.88475692041</v>
       </c>
       <c r="S5">
-        <v>0.06542213206028984</v>
+        <v>0.07808174294409917</v>
       </c>
       <c r="T5">
-        <v>0.06542213206028984</v>
+        <v>0.09772791614493011</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H6">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.28261247658748</v>
+        <v>0.2970403333333334</v>
       </c>
       <c r="N6">
-        <v>0.28261247658748</v>
+        <v>0.8911210000000001</v>
       </c>
       <c r="O6">
-        <v>0.1386038028186209</v>
+        <v>0.1355508427653363</v>
       </c>
       <c r="P6">
-        <v>0.1386038028186209</v>
+        <v>0.1696568352044773</v>
       </c>
       <c r="Q6">
-        <v>0.1301704096168377</v>
+        <v>0.1706609590326667</v>
       </c>
       <c r="R6">
-        <v>0.1301704096168377</v>
+        <v>1.535948631294</v>
       </c>
       <c r="S6">
-        <v>0.1386038028186209</v>
+        <v>0.1355508427653363</v>
       </c>
       <c r="T6">
-        <v>0.1386038028186209</v>
+        <v>0.1696568352044773</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.460596825690902</v>
+        <v>0.574538</v>
       </c>
       <c r="H7">
-        <v>0.460596825690902</v>
+        <v>1.723614</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.515571637776944</v>
+        <v>0.5698545</v>
       </c>
       <c r="N7">
-        <v>0.515571637776944</v>
+        <v>1.139709</v>
       </c>
       <c r="O7">
-        <v>0.2528557496264295</v>
+        <v>0.260046360916035</v>
       </c>
       <c r="P7">
-        <v>0.2528557496264295</v>
+        <v>0.2169844746045258</v>
       </c>
       <c r="Q7">
-        <v>0.23747065977632</v>
+        <v>0.327403064721</v>
       </c>
       <c r="R7">
-        <v>0.23747065977632</v>
+        <v>1.964418388326</v>
       </c>
       <c r="S7">
-        <v>0.2528557496264295</v>
+        <v>0.260046360916035</v>
       </c>
       <c r="T7">
-        <v>0.2528557496264295</v>
+        <v>0.2169844746045258</v>
       </c>
     </row>
   </sheetData>
